--- a/output/chamadas.xlsx
+++ b/output/chamadas.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,40 +508,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chamada efetuada</t>
+          <t>Chamada recebida</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45762.41203703704</v>
+        <v>45776.75407407407</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0:00:06</t>
+          <t>0:00:08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-15 09:57:51</t>
+          <t>2025-04-29 18:09:16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>35193900***</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>402***</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>+351962878547</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>35191877***</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>91877***</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -553,7 +553,9 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -563,26 +565,26 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45762.40856481482</v>
+        <v>45776.29709490741</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:00:11</t>
+          <t>0:00:12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-15 09:49:51</t>
+          <t>2025-04-29 07:08:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>35191877***</t>
+          <t>35192671***</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -616,26 +618,26 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45760.53173611111</v>
+        <v>45772.44469907408</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:06</t>
+          <t>0:00:33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:07:31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-13 12:45:49</t>
+          <t>2025-04-25 10:48:26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35193810***</t>
+          <t>35196682***</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -669,21 +671,21 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45758.85184027778</v>
+        <v>45770.85605324074</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-11 20:31:30</t>
+          <t>2025-04-23 20:32:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,12 +695,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>35191249***</t>
+          <t>35193589***</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>91249***</t>
+          <t>93589***</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -716,40 +718,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chamada recebida</t>
+          <t>Chamada efetuada</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45758.82859953704</v>
+        <v>45770.85525462963</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0:00:16</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:00:40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-11 20:11:06</t>
+          <t>2025-04-23 20:32:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>35191249***</t>
+          <t>+351962878568</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>403***</t>
+          <t>35196662***</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>+351962878568</t>
+          <t>96662***</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -761,89 +763,85 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chamada Não Atendida</t>
+          <t>Chamada recebida</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45758.82842592592</v>
+        <v>45770.85195601852</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:00:14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>0:00:24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0:03:59</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-11 19:53:11</t>
+          <t>2025-04-23 20:31:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>35191249***</t>
+          <t>35196662***</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>402***</t>
+          <t>403***</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>+351962878547</t>
+          <t>+351962878568</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>351962878547</v>
+        <v>351962878568</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Não atendida</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Sem Resposta</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>Atendida</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chamada recebida</t>
+          <t>Chamada Não Atendida</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45758.49100694444</v>
+        <v>45770.85188657408</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:00:12</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0:06:50</t>
-        </is>
-      </c>
+          <t>0:00:05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-11 11:54:04</t>
+          <t>2025-04-23 20:26:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>35193498***</t>
+          <t>35196662***</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -861,63 +859,65 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Atendida</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
+          <t>Não atendida</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Destino Ocupado</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chamada Não Atendida</t>
+          <t>Chamada efetuada</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45758.48907407407</v>
+        <v>45770.76289351852</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:00:59</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0:00:07</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-11 11:45:15</t>
+          <t>2025-04-23 18:18:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>35193498***</t>
+          <t>+351962878568</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>402***</t>
+          <t>35193589***</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>+351962878547</t>
+          <t>93589***</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>351962878547</v>
+        <v>351962878568</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Não atendida</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Canceladas pela origem</t>
-        </is>
-      </c>
+          <t>Atendida</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -928,17 +928,21 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45757.76532407408</v>
+        <v>45770.76179398148</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0:00:05</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-10 18:22:05</t>
+          <t>2025-04-23 18:17:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -948,12 +952,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>#12***</t>
+          <t>35193589***</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12***</t>
+          <t>93589***</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -961,12 +965,116 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Não atendida</t>
+          <t>Atendida</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chamada efetuada</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45770.76157407407</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-04-23 18:16:53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+351962878568</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>35193589***</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>93589***</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>351962878568</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Atendida</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chamada Não Atendida</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45770.60306712963</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-04-23 14:28:47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>35193589***</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+351962878568</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+351962878568</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>351962878568</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Não atendida</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sessão terminada</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -979,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1128,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Duração</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Formatado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Chamadas da Origem</t>
         </is>
@@ -1037,60 +1150,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35191249***</t>
+          <t>35193589***</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45758.85184027778</v>
+        <v>45770.76157407407</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45758.82859953704</v>
+        <v>45770.60306712963</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45758.82842592592</v>
+        <v>45770.60306712963</v>
       </c>
       <c r="F2" t="n">
-        <v>2008</v>
+        <v>13695</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>33min</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3.8h</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>+351962878547</t>
+          <t>+351962878568</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>35191877***</t>
+          <t>35196662***</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45762.41203703704</v>
+        <v>45770.85525462963</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45762.40856481482</v>
+        <v>45770.85195601852</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45762.40856481482</v>
+        <v>45770.85188657408</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5min</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>0:00:40</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4min</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
